--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98BDC8C-FBC5-4E9E-977A-5AC0DCF94B4E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB9EC57-9DFD-4300-AA67-146AC618A1C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24348" yWindow="936" windowWidth="21972" windowHeight="10800" xr2:uid="{DEC2F93A-2140-45BD-B748-AA932EEA7D31}"/>
+    <workbookView xWindow="24000" yWindow="1524" windowWidth="21972" windowHeight="11244" xr2:uid="{DEC2F93A-2140-45BD-B748-AA932EEA7D31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>dog</t>
   </si>
   <si>
-    <t>bird</t>
-  </si>
-  <si>
     <t>apple</t>
   </si>
   <si>
@@ -78,7 +75,10 @@
     <t>flower</t>
   </si>
   <si>
-    <t>grass</t>
+    <t>bush</t>
+  </si>
+  <si>
+    <t>snake</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,10 +474,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -485,13 +485,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
